--- a/Employee_Reports35/Miguelito Costelo Mainit Q0434.xlsx
+++ b/Employee_Reports35/Miguelito Costelo Mainit Q0434.xlsx
@@ -35,7 +35,7 @@
       <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -46,6 +46,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="001F4E78"/>
         <bgColor rgb="001F4E78"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFACD"/>
+        <bgColor rgb="00FFFACD"/>
       </patternFill>
     </fill>
     <fill>
@@ -73,7 +79,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -85,6 +91,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -452,7 +461,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,14 +471,14 @@
   <cols>
     <col width="4" customWidth="1" min="1" max="1"/>
     <col width="73" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="15" customWidth="1" min="6" max="6"/>
     <col width="13" customWidth="1" min="7" max="7"/>
     <col width="18" customWidth="1" min="8" max="8"/>
     <col width="13" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="15" customWidth="1" min="10" max="10"/>
     <col width="9" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
@@ -572,11 +581,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +630,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +679,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +728,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +777,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +826,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +875,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +924,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +973,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1022,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1071,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1120,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1169,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1218,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1258,11 +1267,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1307,11 +1316,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1356,11 +1365,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1405,11 +1414,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1420,41 +1429,471 @@
       <c r="K20" s="3" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="4" t="n">
         <v>19</v>
       </c>
-      <c r="B21" s="3" t="inlineStr">
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>LOTO (SOPs)</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr">
+        <is>
+          <t>ELECTRICAL SAFETY</t>
+        </is>
+      </c>
+      <c r="D21" s="4" t="inlineStr">
+        <is>
+          <t>LSME-OHS-SOP-021</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F21" s="4" t="inlineStr">
+        <is>
+          <t>08-Dec-2024</t>
+        </is>
+      </c>
+      <c r="G21" s="4" t="inlineStr">
+        <is>
+          <t>08-Dec-2025</t>
+        </is>
+      </c>
+      <c r="H21" s="4" t="n">
+        <v>34</v>
+      </c>
+      <c r="I21" s="4" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J21" s="4" t="inlineStr">
+        <is>
+          <t>EXPIRING SOON</t>
+        </is>
+      </c>
+      <c r="K21" s="4" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Equipment Operation Procedure
+(SOP-031) (SOPs)</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-031</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>12-Jun-2025</t>
+        </is>
+      </c>
+      <c r="G22" s="3" t="inlineStr">
+        <is>
+          <t>12-Jun-2026</t>
+        </is>
+      </c>
+      <c r="H22" s="3" t="n">
+        <v>220</v>
+      </c>
+      <c r="I22" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J22" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K22" s="3" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>Equipment  Request &amp;handover procedure(SOP-028) (SOPs)</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-028</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>12-Jun-2025</t>
+        </is>
+      </c>
+      <c r="G23" s="3" t="inlineStr">
+        <is>
+          <t>12-Jun-2026</t>
+        </is>
+      </c>
+      <c r="H23" s="3" t="n">
+        <v>220</v>
+      </c>
+      <c r="I23" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J23" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K23" s="3" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Endangered by Electricity A safety Training (SOPs)</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="inlineStr"/>
+      <c r="D24" s="5" t="inlineStr"/>
+      <c r="E24" s="5" t="inlineStr"/>
+      <c r="F24" s="5" t="inlineStr">
+        <is>
+          <t>30-Jul-2024</t>
+        </is>
+      </c>
+      <c r="G24" s="5" t="inlineStr">
+        <is>
+          <t>30-Jul-2025</t>
+        </is>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>-97</v>
+      </c>
+      <c r="I24" s="5" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J24" s="5" t="inlineStr">
+        <is>
+          <t>NOT VALID</t>
+        </is>
+      </c>
+      <c r="K24" s="5" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Incident Escalation Process(LSME-IMS-SOP-021 ) (SOPs)</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>IMS</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>LSME-IMS-SOP-021</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>11-Mar-2025</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="inlineStr">
+        <is>
+          <t>11-Mar-2026</t>
+        </is>
+      </c>
+      <c r="H25" s="3" t="n">
+        <v>127</v>
+      </c>
+      <c r="I25" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J25" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K25" s="3" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>Contigency Plan During Heavy Rainfall (SOPs)</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>IMS</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="inlineStr">
+        <is>
+          <t>LSME-IMS-SOP-018</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="inlineStr">
+        <is>
+          <t>11-Mar-2025</t>
+        </is>
+      </c>
+      <c r="G26" s="3" t="inlineStr">
+        <is>
+          <t>11-Mar-2026</t>
+        </is>
+      </c>
+      <c r="H26" s="3" t="n">
+        <v>127</v>
+      </c>
+      <c r="I26" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J26" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K26" s="3" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>Replacement of Stacker Crane Driven Wheel (SOPs)</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-009</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="inlineStr">
+        <is>
+          <t>30-Jul-2025</t>
+        </is>
+      </c>
+      <c r="G27" s="3" t="inlineStr">
+        <is>
+          <t>30-Jul-2026</t>
+        </is>
+      </c>
+      <c r="H27" s="3" t="n">
+        <v>268</v>
+      </c>
+      <c r="I27" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J27" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K27" s="3" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Replacing Bearings Of ULD Hoist Counterweight Pulley (SOPs)</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-011</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F28" s="3" t="inlineStr">
+        <is>
+          <t>18-Aug-2025</t>
+        </is>
+      </c>
+      <c r="G28" s="3" t="inlineStr">
+        <is>
+          <t>18-Aug-2026</t>
+        </is>
+      </c>
+      <c r="H28" s="3" t="n">
+        <v>287</v>
+      </c>
+      <c r="I28" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J28" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K28" s="3" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>Overload and Load Testing Procedure In ULD Hoist (SOPs)</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-018</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t>19-Aug-2025</t>
+        </is>
+      </c>
+      <c r="G29" s="3" t="inlineStr">
+        <is>
+          <t>19-Aug-2026</t>
+        </is>
+      </c>
+      <c r="H29" s="3" t="n">
+        <v>288</v>
+      </c>
+      <c r="I29" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J29" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K29" s="3" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
         <is>
           <t>IS0 55001 (Other Trainings)</t>
         </is>
       </c>
-      <c r="C21" s="3" t="inlineStr"/>
-      <c r="D21" s="3" t="inlineStr"/>
-      <c r="E21" s="3" t="inlineStr"/>
-      <c r="F21" s="3" t="inlineStr">
+      <c r="C30" s="3" t="inlineStr"/>
+      <c r="D30" s="3" t="inlineStr"/>
+      <c r="E30" s="3" t="inlineStr"/>
+      <c r="F30" s="3" t="inlineStr">
         <is>
           <t>12-Oct-2025</t>
         </is>
       </c>
-      <c r="G21" s="3" t="inlineStr">
+      <c r="G30" s="3" t="inlineStr">
         <is>
           <t>12-Oct-2027</t>
         </is>
       </c>
-      <c r="H21" s="3" t="n">
-        <v>708</v>
-      </c>
-      <c r="I21" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J21" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K21" s="3" t="inlineStr"/>
+      <c r="H30" s="3" t="n">
+        <v>707</v>
+      </c>
+      <c r="I30" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J30" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K30" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1590,193 +2029,193 @@
       <c r="G4" s="3" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>Consignment Shuttle Tv</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr"/>
-      <c r="D5" s="4" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>93.30%</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
+      <c r="E5" s="5" t="inlineStr">
         <is>
           <t>NOT VALID</t>
         </is>
       </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>Approved Score. Kindly redo your exam the exam is not recorded properly</t>
         </is>
       </c>
-      <c r="G5" s="4" t="n"/>
+      <c r="G5" s="5" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>Uld&amp;Bb-Tv</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr"/>
-      <c r="D6" s="4" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
+      <c r="E6" s="5" t="inlineStr">
         <is>
           <t>NOT VALID</t>
         </is>
       </c>
-      <c r="F6" s="4" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>Congratulations on achieving a perfect score!!!! Kindly redo your exam the exam is not recorded properly</t>
         </is>
       </c>
-      <c r="G6" s="4" t="n"/>
+      <c r="G6" s="5" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="n">
+      <c r="A7" s="5" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>Fmc Deck</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr"/>
-      <c r="D7" s="4" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>100.00%</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
+      <c r="E7" s="5" t="inlineStr">
         <is>
           <t>NOT VALID</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>Congratulations on achieving a perfect score!!!! Kindly redo your exam the exam is not recorded properly</t>
         </is>
       </c>
-      <c r="G7" s="4" t="n"/>
+      <c r="G7" s="5" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="n">
+      <c r="A8" s="5" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>Weight Scales</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr"/>
-      <c r="D8" s="4" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t>78.00%</t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr">
+      <c r="E8" s="5" t="inlineStr">
         <is>
           <t>NOT VALID</t>
         </is>
       </c>
-      <c r="F8" s="4" t="inlineStr">
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>Approved Score. Kindly redo your exam the exam is not recorded properly</t>
         </is>
       </c>
-      <c r="G8" s="4" t="n"/>
+      <c r="G8" s="5" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="n">
+      <c r="A9" s="5" t="n">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>Tilting Deck</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr"/>
-      <c r="D9" s="4" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t>98.40%</t>
         </is>
       </c>
-      <c r="E9" s="4" t="inlineStr">
+      <c r="E9" s="5" t="inlineStr">
         <is>
           <t>NOT VALID</t>
         </is>
       </c>
-      <c r="F9" s="4" t="inlineStr">
+      <c r="F9" s="5" t="inlineStr">
         <is>
           <t>Congratulations on achieving a perfect score!!!! Kindly redo your exam the exam is not recorded properly</t>
         </is>
       </c>
-      <c r="G9" s="4" t="n"/>
+      <c r="G9" s="5" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="n">
+      <c r="A10" s="5" t="n">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>Turntable &amp; Ra Deck</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr"/>
-      <c r="D10" s="4" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr"/>
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t>54.30%</t>
         </is>
       </c>
-      <c r="E10" s="4" t="inlineStr">
+      <c r="E10" s="5" t="inlineStr">
         <is>
           <t>NOT VALID</t>
         </is>
       </c>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="F10" s="5" t="inlineStr">
         <is>
           <t>This is a low mark, please retake the exam and improve your score. Kindly redo your exam the exam is not recorded properly</t>
         </is>
       </c>
-      <c r="G10" s="4" t="n"/>
+      <c r="G10" s="5" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="n">
+      <c r="A11" s="5" t="n">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="5" t="inlineStr">
         <is>
           <t>Cs Hoist</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr"/>
-      <c r="D11" s="4" t="inlineStr">
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr">
         <is>
           <t>91.50%</t>
         </is>
       </c>
-      <c r="E11" s="4" t="inlineStr">
+      <c r="E11" s="5" t="inlineStr">
         <is>
           <t>NOT VALID</t>
         </is>
       </c>
-      <c r="F11" s="4" t="inlineStr">
+      <c r="F11" s="5" t="inlineStr">
         <is>
           <t>Approved Score. Kindly redo your exam the exam is not recorded properly</t>
         </is>
       </c>
-      <c r="G11" s="4" t="n"/>
+      <c r="G11" s="5" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
@@ -1810,112 +2249,112 @@
       <c r="G12" s="3" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="n">
+      <c r="A13" s="5" t="n">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="5" t="inlineStr">
         <is>
           <t>Truck Dock</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr"/>
-      <c r="D13" s="4" t="inlineStr">
+      <c r="C13" s="5" t="inlineStr"/>
+      <c r="D13" s="5" t="inlineStr">
         <is>
           <t>76.70%</t>
         </is>
       </c>
-      <c r="E13" s="4" t="inlineStr">
+      <c r="E13" s="5" t="inlineStr">
         <is>
           <t>NOT VALID</t>
         </is>
       </c>
-      <c r="F13" s="4" t="inlineStr">
+      <c r="F13" s="5" t="inlineStr">
         <is>
           <t>Approved Score. Kindly redo your exam the exam is not recorded properly</t>
         </is>
       </c>
-      <c r="G13" s="4" t="n"/>
+      <c r="G13" s="5" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="n">
+      <c r="A14" s="5" t="n">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>Software &amp; Parameters</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr"/>
-      <c r="D14" s="4" t="inlineStr">
+      <c r="C14" s="5" t="inlineStr"/>
+      <c r="D14" s="5" t="inlineStr">
         <is>
           <t>76.70%</t>
         </is>
       </c>
-      <c r="E14" s="4" t="inlineStr">
+      <c r="E14" s="5" t="inlineStr">
         <is>
           <t>NOT VALID</t>
         </is>
       </c>
-      <c r="F14" s="4" t="inlineStr">
+      <c r="F14" s="5" t="inlineStr">
         <is>
           <t>Approved Score. Kindly redo your exam the exam is not recorded properly</t>
         </is>
       </c>
-      <c r="G14" s="4" t="n"/>
+      <c r="G14" s="5" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="n">
+      <c r="A15" s="5" t="n">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B15" s="5" t="inlineStr">
         <is>
           <t>Control Circuits</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr"/>
-      <c r="D15" s="4" t="inlineStr">
+      <c r="C15" s="5" t="inlineStr"/>
+      <c r="D15" s="5" t="inlineStr">
         <is>
           <t>90.70%</t>
         </is>
       </c>
-      <c r="E15" s="4" t="inlineStr">
+      <c r="E15" s="5" t="inlineStr">
         <is>
           <t>NOT VALID</t>
         </is>
       </c>
-      <c r="F15" s="4" t="inlineStr">
+      <c r="F15" s="5" t="inlineStr">
         <is>
           <t>Approved Score. Kindly redo your exam the exam is not recorded properly</t>
         </is>
       </c>
-      <c r="G15" s="4" t="n"/>
+      <c r="G15" s="5" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="n">
+      <c r="A16" s="5" t="n">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>Cool Rooms</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr"/>
-      <c r="D16" s="4" t="inlineStr">
+      <c r="C16" s="5" t="inlineStr"/>
+      <c r="D16" s="5" t="inlineStr">
         <is>
           <t>78.00%</t>
         </is>
       </c>
-      <c r="E16" s="4" t="inlineStr">
+      <c r="E16" s="5" t="inlineStr">
         <is>
           <t>NOT VALID</t>
         </is>
       </c>
-      <c r="F16" s="4" t="inlineStr">
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>Approved Score. Kindly redo your exam the exam is not recorded properly</t>
         </is>
       </c>
-      <c r="G16" s="4" t="n"/>
+      <c r="G16" s="5" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">

--- a/Employee_Reports35/Miguelito Costelo Mainit Q0434.xlsx
+++ b/Employee_Reports35/Miguelito Costelo Mainit Q0434.xlsx
@@ -581,11 +581,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -630,11 +630,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -679,11 +679,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -728,11 +728,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -777,11 +777,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -826,11 +826,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -875,11 +875,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -924,11 +924,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -973,11 +973,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1022,11 +1022,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1071,11 +1071,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1120,11 +1120,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1169,11 +1169,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1218,11 +1218,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1267,11 +1267,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1316,11 +1316,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1365,11 +1365,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1414,11 +1414,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1463,11 +1463,11 @@
         </is>
       </c>
       <c r="H21" s="4" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I21" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="4" t="inlineStr">
@@ -1513,11 +1513,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1562,11 +1562,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1599,11 +1599,11 @@
         </is>
       </c>
       <c r="H24" s="5" t="n">
-        <v>-97</v>
+        <v>-98</v>
       </c>
       <c r="I24" s="5" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="5" t="inlineStr">
@@ -1648,11 +1648,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1697,11 +1697,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1746,11 +1746,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1795,11 +1795,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1844,11 +1844,11 @@
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
@@ -1881,11 +1881,11 @@
         </is>
       </c>
       <c r="H30" s="3" t="n">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J30" s="3" t="inlineStr">
